--- a/medicine/Enfance/L._J._Smith/L._J._Smith.xlsx
+++ b/medicine/Enfance/L._J._Smith/L._J._Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lisa Jane Smith (connue également comme Ljane Smith, Lisa Smith ou L. J. Smith), née le 4 septembre 1965 à Fort Lauderdale en Floride, est une écrivaine américaine vivant en Californie. Ses livres sont destinés aux jeunes adultes et combinent une multitude de genres : horreur, science-fiction, fantasy, romance.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lisa Jane Smith a écrit quatre  trilogies, deux séries et deux romans. Ses livres sont peuplés de façon caractéristique par des personnes inhabituellement belles, humaines ou surnaturelles, la plupart jeunes, ou tout au moins d'apparence juvénile. Ses histoires portent habituellement sur un conflit entre le bien et le mal, tournant autour d'un personnage ambigu central, qui, tout en essayant de séduire l'héroïne et la pousser vers l'obscurité, finit par lui-même renaître dans la lumière et devient ainsi un héros. Parfois, ce scénario est inversé, ou est une variation sur le thème. Dans la série Night World, le conflit bien/mal est institutionnalisée en une conspiration qui altère la réalité.
 À partir de 1998, Lisa Jane Smith s'est arrêtée d'écrire pendant dix ans. Elle a fait son retour en 2008 avec un nouveau site web et une série de nouvelles histoires courtes. Les livres de la série Le Journal d'un vampire ont été rééditées à partir de 2007, et la trilogie Le Cercle secret et les romans Night World en 2008 et 2009. Solstice d'hiver et Un cœur indompté ont également été réédités en 2008. La première livraison concernant la nouvelle trilogie Journal d'un vampire, intitulée Le Retour, a été publiée le 10 février 2009.
@@ -545,9 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Saga
-Night World
-Le Secret du vampire, Michel Lafon, 2009 ((en) Secret Vampire, 1996)
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Night World</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Secret du vampire, Michel Lafon, 2009 ((en) Secret Vampire, 1996)
 Les Sœurs des ténèbres, Michel Lafon, 2010 ((en) Daughters of Darkness, 1996)
 Ensorceleuse, Michel Lafon, 2010 ((en) Spellbinder, 1996)
 Ange noir, Michel Lafon, 2010 ((en) Dark Angel, 1996)
@@ -556,9 +578,47 @@
 La Chasseresse, Michel Lafon, 2011 ((en) Huntress, 1997)
 Le Royaume des ténèbres, Michel Lafon, 2012 ((en) Black Dawn, 1997)
 La Flamme de la sorcière, Michel Lafon, 2012 ((en) Witchlight, 1998)
-(en) Strange FateÀ paraître
-Journal d'un vampire
-La Naissance, J'ai lu, 2000 ((en) The Awakening, 1991)
+(en) Strange FateÀ paraître</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L._J._Smith</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._J._Smith</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Journal d'un vampire</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Naissance, J'ai lu, 2000 ((en) The Awakening, 1991)
 Princesse des ténèbres, J'ai lu, 2000 ((en) The Struggle, 1991)
 La Furie, J'ai lu, 2000 ((en) The Fury, 1991)
 Réunion macabre, J'ai lu, 2000 ((en) Dark Reunion, 1992)
@@ -573,40 +633,269 @@
 Cruelle Destinée, Hachette Jeunesse, 2013 ((en) The Hunters: Destiny Rising, 2012)Écrit par un nègre littéraire anonyme
 Le Cauchemar, Hachette Jeunesse, 2013 ((en) The Salvation: Unseen, 2013)Écrit par un nègre littéraire du nom de Aubrey Clark
 La Traque, Hachette Jeunesse, 2014 ((en) The Salvation: Unspoken, 2013)Écrit par un nègre littéraire du nom de Aubrey Clark
-Rédemption, Hachette Jeunesse, 2014 ((en) The Salvation: Unmasked, 2014)Écrit par un nègre littéraire du nom de Aubrey Clark
-Le Journal de Stefan
-Cette série est inspirée des livres Le Journal d'un vampire mais les romans ne sont pas écrit par L. J. Smith à l'exception du tome 3.
+Rédemption, Hachette Jeunesse, 2014 ((en) The Salvation: Unmasked, 2014)Écrit par un nègre littéraire du nom de Aubrey Clark</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L._J._Smith</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._J._Smith</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Le Journal de Stefan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette série est inspirée des livres Le Journal d'un vampire mais les romans ne sont pas écrit par L. J. Smith à l'exception du tome 3.
 Le Journal de Stefan : Les Origines, Hachette, coll. Black Moon, 2011 ((en) Stefan’s Diaries: Origins, 2010)
 Le Journal de Stefan : La Soif de sang, Hachette, coll. Black Moon, 2011 ((en) Stefan’s Diaries: Bloodlust, 2011)
 Le Journal de Stefan : L’Irrésistible Désir, Hachette, coll. Black Moon, 2011 ((en) Stefan’s Diaries: The Craving, 2011)
 Le Journal de Stefan : L'Éventreur, Hachette, coll. Black Moon, 2012 ((en) Stefan’s Diaries: The Ripper, 2011)
 Le Journal de Stefan : L'Asile, Hachette, coll. Black Moon, 2012 ((en) Stefan’s Diaries: The Asylum, 2012)
-Le Journal de Stefan : Manipulés, Hachette, coll. Black Moon, 2012 ((en) Stefan’s Diaries: The Compelled, 2012)
-Le Cercle secret
-À partir du tome 4, la série n'est plus écrite par L. J. Smith mais par Aubrey Clark.
+Le Journal de Stefan : Manipulés, Hachette, coll. Black Moon, 2012 ((en) Stefan’s Diaries: The Compelled, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L._J._Smith</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._J._Smith</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Le Cercle secret</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>À partir du tome 4, la série n'est plus écrite par L. J. Smith mais par Aubrey Clark.
 Initiation, Hachette Jeunesse, 2010 ((en) The Initation, 1992)
 Captive, Hachette Jeunesse, 2010 ((en) The Captive, 1992)
 Pouvoir, Hachette Jeunesse, 2011 ((en) The Power, 1992)
 Le Choix inévitable, Hachette Jeunesse, 2013 ((en) The Divide, 2012)
 Le Livre interdit, Hachette Jeunesse, 2013 ((en) The Hunt, 2012)
-L'Affrontement final, Hachette Jeunesse, 2013 ((en) The Temptation, 2013)
-La Nuit du solstice
-Les deux premiers tomes ont été édités en un seul volume en France.
+L'Affrontement final, Hachette Jeunesse, 2013 ((en) The Temptation, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L._J._Smith</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._J._Smith</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>La Nuit du solstice</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les deux premiers tomes ont été édités en un seul volume en France.
 Solstice d'hiver, Michel Lafon, 2012 ((en) The Night of the Solstice, 1987)
-Un cœur indompté, Michel Lafon, 2012 ((en) Heart of Valor, 1990)
-Un jeu interdit
-Le Chasseur, Michel Lafon, 2013 ((en) The Hunter, 1994)
+Un cœur indompté, Michel Lafon, 2012 ((en) Heart of Valor, 1990)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L._J._Smith</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._J._Smith</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Un jeu interdit</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chasseur, Michel Lafon, 2013 ((en) The Hunter, 1994)
 La Poursuite, Michel Lafon, 2013 ((en) The Chase, 1994)
 L'Affrontement, Michel Lafon, 2013 ((en) The Kill, 1994)
 L'intégrale de la trilogie Un jeu interdit a été éditée aux éditions Michel Lafon en juin 2011.
-Prémonitions
-Étrange Pouvoir ((en) The Strange Power, 1994)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L._J._Smith</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._J._Smith</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Prémonitions</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étrange Pouvoir ((en) The Strange Power, 1994)
 Possédés ((en) The Possessed, 1995)
 Passion ((en) The Passion, 1995)
 L'intégrale de la trilogie Prémonitions a été éditée aux éditions Michel Lafon en juin 2010.
-Histoires courtes
-Blood Will Tell
-Thicker Than Water
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L._J._Smith</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._J._Smith</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histoires courtes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Blood Will Tell</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Thicker Than Water
 Brionwy's Berceuse
 Ash &amp; Mary-Lynnette : Ceux qui favorisent l'incendie
 Jez and Morgead's : Hors de la nuit
